--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T20:06:08+00:00</t>
+    <t>2022-01-10T15:11:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T15:11:55+00:00</t>
+    <t>2022-01-25T14:39:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T14:39:04+00:00</t>
+    <t>2022-01-31T16:29:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T16:29:45+00:00</t>
+    <t>2022-01-31T20:10:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T20:10:04+00:00</t>
+    <t>2022-02-11T00:28:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T00:28:19+00:00</t>
+    <t>2022-02-11T01:45:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T01:45:45+00:00</t>
+    <t>2022-02-13T22:11:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-13T22:11:31+00:00</t>
+    <t>2022-03-01T19:29:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T19:29:42+00:00</t>
+    <t>2022-03-04T23:14:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T23:14:40+00:00</t>
+    <t>2022-03-05T00:52:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T00:52:55+00:00</t>
+    <t>2022-03-05T01:03:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T01:03:34+00:00</t>
+    <t>2022-03-05T01:09:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T01:09:46+00:00</t>
+    <t>2022-03-18T16:50:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T16:50:55+00:00</t>
+    <t>2022-03-19T18:10:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-19T18:10:29+00:00</t>
+    <t>2022-03-19T18:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-19T18:27:00+00:00</t>
+    <t>2022-03-20T18:26:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-20T18:26:18+00:00</t>
+    <t>2022-03-20T19:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-20T19:00:26+00:00</t>
+    <t>2022-03-21T17:45:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T17:45:13+00:00</t>
+    <t>2022-03-21T18:09:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T18:09:33+00:00</t>
+    <t>2022-03-22T20:54:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T20:54:15+00:00</t>
+    <t>2022-03-23T00:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:01:05+00:00</t>
+    <t>2022-03-23T00:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:19:03+00:00</t>
+    <t>2022-03-23T00:33:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:33:43+00:00</t>
+    <t>2022-03-23T18:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T18:40:06+00:00</t>
+    <t>2022-03-23T19:11:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T19:11:09+00:00</t>
+    <t>2022-03-23T19:27:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T19:27:55+00:00</t>
+    <t>2022-03-23T20:20:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:20:45+00:00</t>
+    <t>2022-03-23T20:39:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:39:07+00:00</t>
+    <t>2022-03-23T21:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T21:03:35+00:00</t>
+    <t>2022-03-24T19:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T19:03:35+00:00</t>
+    <t>2022-03-24T19:25:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T19:25:05+00:00</t>
+    <t>2022-03-24T20:10:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T20:10:48+00:00</t>
+    <t>2022-03-24T20:26:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T20:26:37+00:00</t>
+    <t>2022-03-26T21:07:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:07:52+00:00</t>
+    <t>2022-03-26T21:44:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:44:34+00:00</t>
+    <t>2022-03-26T21:58:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:58:42+00:00</t>
+    <t>2022-03-26T22:00:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T22:00:49+00:00</t>
+    <t>2022-03-28T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T14:06:51+00:00</t>
+    <t>2022-03-28T17:18:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T17:18:58+00:00</t>
+    <t>2022-03-28T18:48:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T18:48:26+00:00</t>
+    <t>2022-03-28T20:08:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T20:08:43+00:00</t>
+    <t>2022-03-28T23:34:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:34:19+00:00</t>
+    <t>2022-03-28T23:45:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:45:02+00:00</t>
+    <t>2022-03-28T23:47:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:47:33+00:00</t>
+    <t>2022-03-29T00:49:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T00:49:23+00:00</t>
+    <t>2022-03-29T01:03:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:03:03+00:00</t>
+    <t>2022-03-29T01:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:33:50+00:00</t>
+    <t>2022-03-29T22:51:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T22:51:35+00:00</t>
+    <t>2022-03-30T04:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T04:10:02+00:00</t>
+    <t>2022-03-30T05:07:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T05:07:06+00:00</t>
+    <t>2022-03-30T05:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T05:24:10+00:00</t>
+    <t>2022-03-30T15:00:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T15:00:01+00:00</t>
+    <t>2022-03-30T20:32:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T20:32:02+00:00</t>
+    <t>2022-03-31T03:49:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T03:49:14+00:00</t>
+    <t>2022-03-31T04:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T04:31:26+00:00</t>
+    <t>2022-03-31T04:46:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T04:46:55+00:00</t>
+    <t>2022-03-31T06:22:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T06:22:16+00:00</t>
+    <t>2022-03-31T06:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T06:42:10+00:00</t>
+    <t>2022-04-26T17:07:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T17:07:52+00:00</t>
+    <t>2022-05-27T14:27:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-27T14:27:29+00:00</t>
+    <t>2022-06-01T13:01:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T13:01:08+00:00</t>
+    <t>2022-09-27T20:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -280,45 +280,49 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Bundle.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Bundle.meta.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Bundle.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Bundle.meta.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -369,10 +373,6 @@
   </si>
   <si>
     <t>Bundle.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
   </si>
   <si>
     <t>Version specific identifier</t>
@@ -1461,44 +1461,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.00390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.0078125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="14.54296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="28.78125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="28.78515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="105.953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="105.95703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="168.1875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.140625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="168.19140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.14453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="50.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="28.1484375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="50.08203125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="42.97265625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="42.9765625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1975,13 +1975,13 @@
         <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2032,7 +2032,7 @@
         <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>77</v>
@@ -2050,7 +2050,7 @@
         <v>76</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>76</v>
@@ -2061,11 +2061,11 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2084,16 +2084,16 @@
         <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2131,19 +2131,19 @@
         <v>76</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>77</v>
@@ -2155,13 +2155,13 @@
         <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>76</v>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -2195,7 +2195,7 @@
         <v>86</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>116</v>
@@ -3638,13 +3638,13 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3695,7 +3695,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -3713,7 +3713,7 @@
         <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3747,16 +3747,16 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3806,7 +3806,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -3818,13 +3818,13 @@
         <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
@@ -3858,7 +3858,7 @@
         <v>86</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>206</v>
@@ -3867,7 +3867,7 @@
         <v>207</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N22" t="s" s="2">
         <v>208</v>
@@ -3931,7 +3931,7 @@
         <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>76</v>
@@ -3971,7 +3971,7 @@
         <v>86</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>211</v>
@@ -4298,13 +4298,13 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4355,7 +4355,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4373,7 +4373,7 @@
         <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4407,16 +4407,16 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4466,7 +4466,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4478,13 +4478,13 @@
         <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4518,7 +4518,7 @@
         <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>206</v>
@@ -4527,7 +4527,7 @@
         <v>207</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N28" t="s" s="2">
         <v>208</v>
@@ -4591,7 +4591,7 @@
         <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>76</v>
@@ -5069,13 +5069,13 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5126,7 +5126,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5144,7 +5144,7 @@
         <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -5159,7 +5159,7 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5178,16 +5178,16 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5237,7 +5237,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5249,13 +5249,13 @@
         <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
@@ -5289,7 +5289,7 @@
         <v>86</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>206</v>
@@ -5298,7 +5298,7 @@
         <v>207</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>208</v>
@@ -5362,7 +5362,7 @@
         <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>76</v>
@@ -5733,13 +5733,13 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5790,7 +5790,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -5808,7 +5808,7 @@
         <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
@@ -5823,7 +5823,7 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5842,16 +5842,16 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5901,7 +5901,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -5913,13 +5913,13 @@
         <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -5953,7 +5953,7 @@
         <v>86</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>206</v>
@@ -5962,7 +5962,7 @@
         <v>207</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>208</v>
@@ -6026,7 +6026,7 @@
         <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>76</v>
@@ -6286,7 +6286,7 @@
         <v>86</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>272</v>
@@ -6504,7 +6504,7 @@
         <v>86</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>277</v>
@@ -6613,7 +6613,7 @@
         <v>86</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>280</v>
@@ -6831,13 +6831,13 @@
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6888,7 +6888,7 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -6906,7 +6906,7 @@
         <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6940,16 +6940,16 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -6999,7 +6999,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7011,13 +7011,13 @@
         <v>76</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -7051,7 +7051,7 @@
         <v>86</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>206</v>
@@ -7060,7 +7060,7 @@
         <v>207</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>208</v>
@@ -7124,7 +7124,7 @@
         <v>76</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>76</v>
@@ -7164,7 +7164,7 @@
         <v>86</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>290</v>
@@ -7382,7 +7382,7 @@
         <v>86</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>296</v>
@@ -7826,13 +7826,13 @@
         <v>76</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7883,7 +7883,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -7901,7 +7901,7 @@
         <v>76</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>76</v>
@@ -7916,7 +7916,7 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7935,16 +7935,16 @@
         <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -7994,7 +7994,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8006,13 +8006,13 @@
         <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>76</v>
@@ -8046,7 +8046,7 @@
         <v>86</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>206</v>
@@ -8055,7 +8055,7 @@
         <v>207</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>208</v>
@@ -8119,7 +8119,7 @@
         <v>76</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>76</v>
@@ -8597,13 +8597,13 @@
         <v>76</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8654,7 +8654,7 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -8672,7 +8672,7 @@
         <v>76</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>76</v>
@@ -8687,7 +8687,7 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -8706,16 +8706,16 @@
         <v>76</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -8765,7 +8765,7 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -8777,13 +8777,13 @@
         <v>76</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>76</v>
@@ -8817,7 +8817,7 @@
         <v>86</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>206</v>
@@ -8826,7 +8826,7 @@
         <v>207</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>208</v>
@@ -8890,7 +8890,7 @@
         <v>76</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>76</v>
@@ -9261,13 +9261,13 @@
         <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9318,7 +9318,7 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -9336,7 +9336,7 @@
         <v>76</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>76</v>
@@ -9351,7 +9351,7 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9370,16 +9370,16 @@
         <v>76</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9429,7 +9429,7 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -9441,13 +9441,13 @@
         <v>76</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>76</v>
@@ -9481,7 +9481,7 @@
         <v>86</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>206</v>
@@ -9490,7 +9490,7 @@
         <v>207</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>208</v>
@@ -9554,7 +9554,7 @@
         <v>76</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>76</v>
@@ -9814,7 +9814,7 @@
         <v>86</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>272</v>
@@ -10032,7 +10032,7 @@
         <v>86</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>277</v>
@@ -10141,7 +10141,7 @@
         <v>86</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>280</v>
@@ -10359,13 +10359,13 @@
         <v>76</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10416,7 +10416,7 @@
         <v>76</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -10434,7 +10434,7 @@
         <v>76</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>76</v>
@@ -10449,7 +10449,7 @@
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10468,16 +10468,16 @@
         <v>76</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -10527,7 +10527,7 @@
         <v>76</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -10539,13 +10539,13 @@
         <v>76</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>76</v>
@@ -10579,7 +10579,7 @@
         <v>86</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K83" t="s" s="2">
         <v>206</v>
@@ -10588,7 +10588,7 @@
         <v>207</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>208</v>
@@ -10652,7 +10652,7 @@
         <v>76</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>76</v>
@@ -10692,7 +10692,7 @@
         <v>86</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>290</v>
@@ -10910,7 +10910,7 @@
         <v>86</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K86" t="s" s="2">
         <v>296</v>
@@ -11354,13 +11354,13 @@
         <v>76</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11411,7 +11411,7 @@
         <v>76</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -11429,7 +11429,7 @@
         <v>76</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>76</v>
@@ -11444,7 +11444,7 @@
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11463,16 +11463,16 @@
         <v>76</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -11522,7 +11522,7 @@
         <v>76</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -11534,13 +11534,13 @@
         <v>76</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>76</v>
@@ -11574,7 +11574,7 @@
         <v>86</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>206</v>
@@ -11583,7 +11583,7 @@
         <v>207</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N92" t="s" s="2">
         <v>208</v>
@@ -11647,7 +11647,7 @@
         <v>76</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>76</v>
@@ -12127,13 +12127,13 @@
         <v>76</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -12184,7 +12184,7 @@
         <v>76</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -12202,7 +12202,7 @@
         <v>76</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>76</v>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -12236,16 +12236,16 @@
         <v>76</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -12295,7 +12295,7 @@
         <v>76</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -12307,13 +12307,13 @@
         <v>76</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>76</v>
@@ -12347,7 +12347,7 @@
         <v>86</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K99" t="s" s="2">
         <v>206</v>
@@ -12356,7 +12356,7 @@
         <v>207</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N99" t="s" s="2">
         <v>208</v>
@@ -12420,7 +12420,7 @@
         <v>76</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>76</v>
@@ -12791,13 +12791,13 @@
         <v>76</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -12848,7 +12848,7 @@
         <v>76</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>77</v>
@@ -12866,7 +12866,7 @@
         <v>76</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>76</v>
@@ -12881,7 +12881,7 @@
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -12900,16 +12900,16 @@
         <v>76</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
@@ -12959,7 +12959,7 @@
         <v>76</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>77</v>
@@ -12971,13 +12971,13 @@
         <v>76</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>76</v>
@@ -13011,7 +13011,7 @@
         <v>86</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K105" t="s" s="2">
         <v>206</v>
@@ -13020,7 +13020,7 @@
         <v>207</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N105" t="s" s="2">
         <v>208</v>
@@ -13084,7 +13084,7 @@
         <v>76</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>76</v>
@@ -13344,7 +13344,7 @@
         <v>86</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K108" t="s" s="2">
         <v>272</v>
@@ -13562,7 +13562,7 @@
         <v>86</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K110" t="s" s="2">
         <v>277</v>
@@ -13671,7 +13671,7 @@
         <v>86</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K111" t="s" s="2">
         <v>280</v>
@@ -13889,13 +13889,13 @@
         <v>76</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -13946,7 +13946,7 @@
         <v>76</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>77</v>
@@ -13964,7 +13964,7 @@
         <v>76</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>76</v>
@@ -13979,7 +13979,7 @@
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -13998,16 +13998,16 @@
         <v>76</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
@@ -14057,7 +14057,7 @@
         <v>76</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>77</v>
@@ -14069,13 +14069,13 @@
         <v>76</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>76</v>
@@ -14109,7 +14109,7 @@
         <v>86</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K115" t="s" s="2">
         <v>206</v>
@@ -14118,7 +14118,7 @@
         <v>207</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N115" t="s" s="2">
         <v>208</v>
@@ -14182,7 +14182,7 @@
         <v>76</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>76</v>
@@ -14222,7 +14222,7 @@
         <v>86</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K116" t="s" s="2">
         <v>290</v>
@@ -14440,7 +14440,7 @@
         <v>86</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K118" t="s" s="2">
         <v>296</v>
@@ -14884,13 +14884,13 @@
         <v>76</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -14941,7 +14941,7 @@
         <v>76</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>77</v>
@@ -14959,7 +14959,7 @@
         <v>76</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>76</v>
@@ -14974,7 +14974,7 @@
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -14993,16 +14993,16 @@
         <v>76</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
@@ -15052,7 +15052,7 @@
         <v>76</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>77</v>
@@ -15064,13 +15064,13 @@
         <v>76</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>76</v>
@@ -15104,7 +15104,7 @@
         <v>86</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K124" t="s" s="2">
         <v>206</v>
@@ -15113,7 +15113,7 @@
         <v>207</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N124" t="s" s="2">
         <v>208</v>
@@ -15177,7 +15177,7 @@
         <v>76</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>76</v>
@@ -15657,13 +15657,13 @@
         <v>76</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
@@ -15714,7 +15714,7 @@
         <v>76</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>77</v>
@@ -15732,7 +15732,7 @@
         <v>76</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>76</v>
@@ -15747,7 +15747,7 @@
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -15766,16 +15766,16 @@
         <v>76</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
@@ -15825,7 +15825,7 @@
         <v>76</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>77</v>
@@ -15837,13 +15837,13 @@
         <v>76</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL130" t="s" s="2">
         <v>76</v>
@@ -15877,7 +15877,7 @@
         <v>86</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K131" t="s" s="2">
         <v>206</v>
@@ -15886,7 +15886,7 @@
         <v>207</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N131" t="s" s="2">
         <v>208</v>
@@ -15950,7 +15950,7 @@
         <v>76</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>76</v>
@@ -16321,13 +16321,13 @@
         <v>76</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -16378,7 +16378,7 @@
         <v>76</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>77</v>
@@ -16396,7 +16396,7 @@
         <v>76</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>76</v>
@@ -16411,7 +16411,7 @@
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -16430,16 +16430,16 @@
         <v>76</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
@@ -16489,7 +16489,7 @@
         <v>76</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>77</v>
@@ -16501,13 +16501,13 @@
         <v>76</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>76</v>
@@ -16541,7 +16541,7 @@
         <v>86</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K137" t="s" s="2">
         <v>206</v>
@@ -16550,7 +16550,7 @@
         <v>207</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N137" t="s" s="2">
         <v>208</v>
@@ -16614,7 +16614,7 @@
         <v>76</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>76</v>
@@ -16874,7 +16874,7 @@
         <v>86</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K140" t="s" s="2">
         <v>272</v>
@@ -17092,7 +17092,7 @@
         <v>86</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K142" t="s" s="2">
         <v>277</v>
@@ -17201,7 +17201,7 @@
         <v>86</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K143" t="s" s="2">
         <v>280</v>
@@ -17419,13 +17419,13 @@
         <v>76</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -17476,7 +17476,7 @@
         <v>76</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>77</v>
@@ -17494,7 +17494,7 @@
         <v>76</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL145" t="s" s="2">
         <v>76</v>
@@ -17509,7 +17509,7 @@
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -17528,16 +17528,16 @@
         <v>76</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
@@ -17587,7 +17587,7 @@
         <v>76</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>77</v>
@@ -17599,13 +17599,13 @@
         <v>76</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL146" t="s" s="2">
         <v>76</v>
@@ -17639,7 +17639,7 @@
         <v>86</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K147" t="s" s="2">
         <v>206</v>
@@ -17648,7 +17648,7 @@
         <v>207</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N147" t="s" s="2">
         <v>208</v>
@@ -17712,7 +17712,7 @@
         <v>76</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>76</v>
@@ -17752,7 +17752,7 @@
         <v>86</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K148" t="s" s="2">
         <v>290</v>
@@ -17970,7 +17970,7 @@
         <v>86</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K150" t="s" s="2">
         <v>296</v>
@@ -18414,13 +18414,13 @@
         <v>76</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -18471,7 +18471,7 @@
         <v>76</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>77</v>
@@ -18489,7 +18489,7 @@
         <v>76</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL154" t="s" s="2">
         <v>76</v>
@@ -18504,7 +18504,7 @@
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -18523,16 +18523,16 @@
         <v>76</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
@@ -18582,7 +18582,7 @@
         <v>76</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>77</v>
@@ -18594,13 +18594,13 @@
         <v>76</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL155" t="s" s="2">
         <v>76</v>
@@ -18634,7 +18634,7 @@
         <v>86</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K156" t="s" s="2">
         <v>206</v>
@@ -18643,7 +18643,7 @@
         <v>207</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N156" t="s" s="2">
         <v>208</v>
@@ -18707,7 +18707,7 @@
         <v>76</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>76</v>
@@ -19185,13 +19185,13 @@
         <v>76</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
@@ -19242,7 +19242,7 @@
         <v>76</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>77</v>
@@ -19260,7 +19260,7 @@
         <v>76</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL161" t="s" s="2">
         <v>76</v>
@@ -19275,7 +19275,7 @@
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -19294,16 +19294,16 @@
         <v>76</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
@@ -19353,7 +19353,7 @@
         <v>76</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>77</v>
@@ -19365,13 +19365,13 @@
         <v>76</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL162" t="s" s="2">
         <v>76</v>
@@ -19405,7 +19405,7 @@
         <v>86</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K163" t="s" s="2">
         <v>206</v>
@@ -19414,7 +19414,7 @@
         <v>207</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N163" t="s" s="2">
         <v>208</v>
@@ -19478,7 +19478,7 @@
         <v>76</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>76</v>
@@ -19849,13 +19849,13 @@
         <v>76</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
@@ -19906,7 +19906,7 @@
         <v>76</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>77</v>
@@ -19924,7 +19924,7 @@
         <v>76</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL167" t="s" s="2">
         <v>76</v>
@@ -19939,7 +19939,7 @@
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -19958,16 +19958,16 @@
         <v>76</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" t="s" s="2">
@@ -20017,7 +20017,7 @@
         <v>76</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>77</v>
@@ -20029,13 +20029,13 @@
         <v>76</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ168" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL168" t="s" s="2">
         <v>76</v>
@@ -20069,7 +20069,7 @@
         <v>86</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K169" t="s" s="2">
         <v>206</v>
@@ -20078,7 +20078,7 @@
         <v>207</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N169" t="s" s="2">
         <v>208</v>
@@ -20142,7 +20142,7 @@
         <v>76</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ169" t="s" s="2">
         <v>76</v>
@@ -20400,7 +20400,7 @@
         <v>86</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K172" t="s" s="2">
         <v>272</v>
@@ -20618,7 +20618,7 @@
         <v>86</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K174" t="s" s="2">
         <v>277</v>
@@ -20727,7 +20727,7 @@
         <v>86</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K175" t="s" s="2">
         <v>280</v>
@@ -20945,13 +20945,13 @@
         <v>76</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M177" s="2"/>
       <c r="N177" s="2"/>
@@ -21002,7 +21002,7 @@
         <v>76</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>77</v>
@@ -21020,7 +21020,7 @@
         <v>76</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL177" t="s" s="2">
         <v>76</v>
@@ -21035,7 +21035,7 @@
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
@@ -21054,16 +21054,16 @@
         <v>76</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
@@ -21113,7 +21113,7 @@
         <v>76</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>77</v>
@@ -21125,13 +21125,13 @@
         <v>76</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ178" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK178" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL178" t="s" s="2">
         <v>76</v>
@@ -21165,7 +21165,7 @@
         <v>86</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K179" t="s" s="2">
         <v>206</v>
@@ -21174,7 +21174,7 @@
         <v>207</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N179" t="s" s="2">
         <v>208</v>
@@ -21238,7 +21238,7 @@
         <v>76</v>
       </c>
       <c r="AI179" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ179" t="s" s="2">
         <v>76</v>
@@ -21278,7 +21278,7 @@
         <v>86</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K180" t="s" s="2">
         <v>290</v>
@@ -21496,7 +21496,7 @@
         <v>86</v>
       </c>
       <c r="J182" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K182" t="s" s="2">
         <v>296</v>
@@ -21940,13 +21940,13 @@
         <v>76</v>
       </c>
       <c r="J186" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M186" s="2"/>
       <c r="N186" s="2"/>
@@ -21997,7 +21997,7 @@
         <v>76</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>77</v>
@@ -22015,7 +22015,7 @@
         <v>76</v>
       </c>
       <c r="AK186" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL186" t="s" s="2">
         <v>76</v>
@@ -22030,7 +22030,7 @@
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" t="s" s="2">
@@ -22049,16 +22049,16 @@
         <v>76</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" t="s" s="2">
@@ -22108,7 +22108,7 @@
         <v>76</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>77</v>
@@ -22120,13 +22120,13 @@
         <v>76</v>
       </c>
       <c r="AI187" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ187" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK187" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL187" t="s" s="2">
         <v>76</v>
@@ -22160,7 +22160,7 @@
         <v>86</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K188" t="s" s="2">
         <v>206</v>
@@ -22169,7 +22169,7 @@
         <v>207</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N188" t="s" s="2">
         <v>208</v>
@@ -22233,7 +22233,7 @@
         <v>76</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ188" t="s" s="2">
         <v>76</v>
@@ -22711,13 +22711,13 @@
         <v>76</v>
       </c>
       <c r="J193" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
@@ -22768,7 +22768,7 @@
         <v>76</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>77</v>
@@ -22786,7 +22786,7 @@
         <v>76</v>
       </c>
       <c r="AK193" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL193" t="s" s="2">
         <v>76</v>
@@ -22801,7 +22801,7 @@
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" t="s" s="2">
@@ -22820,16 +22820,16 @@
         <v>76</v>
       </c>
       <c r="J194" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N194" s="2"/>
       <c r="O194" t="s" s="2">
@@ -22879,7 +22879,7 @@
         <v>76</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>77</v>
@@ -22891,13 +22891,13 @@
         <v>76</v>
       </c>
       <c r="AI194" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ194" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK194" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL194" t="s" s="2">
         <v>76</v>
@@ -22931,7 +22931,7 @@
         <v>86</v>
       </c>
       <c r="J195" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K195" t="s" s="2">
         <v>206</v>
@@ -22940,7 +22940,7 @@
         <v>207</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N195" t="s" s="2">
         <v>208</v>
@@ -23004,7 +23004,7 @@
         <v>76</v>
       </c>
       <c r="AI195" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ195" t="s" s="2">
         <v>76</v>
@@ -23375,13 +23375,13 @@
         <v>76</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M199" s="2"/>
       <c r="N199" s="2"/>
@@ -23432,7 +23432,7 @@
         <v>76</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>77</v>
@@ -23450,7 +23450,7 @@
         <v>76</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL199" t="s" s="2">
         <v>76</v>
@@ -23465,7 +23465,7 @@
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" t="s" s="2">
@@ -23484,16 +23484,16 @@
         <v>76</v>
       </c>
       <c r="J200" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N200" s="2"/>
       <c r="O200" t="s" s="2">
@@ -23543,7 +23543,7 @@
         <v>76</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>77</v>
@@ -23555,13 +23555,13 @@
         <v>76</v>
       </c>
       <c r="AI200" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ200" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK200" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL200" t="s" s="2">
         <v>76</v>
@@ -23595,7 +23595,7 @@
         <v>86</v>
       </c>
       <c r="J201" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K201" t="s" s="2">
         <v>206</v>
@@ -23604,7 +23604,7 @@
         <v>207</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N201" t="s" s="2">
         <v>208</v>
@@ -23668,7 +23668,7 @@
         <v>76</v>
       </c>
       <c r="AI201" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ201" t="s" s="2">
         <v>76</v>
@@ -23926,7 +23926,7 @@
         <v>86</v>
       </c>
       <c r="J204" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K204" t="s" s="2">
         <v>272</v>
@@ -24144,7 +24144,7 @@
         <v>86</v>
       </c>
       <c r="J206" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K206" t="s" s="2">
         <v>277</v>
@@ -24253,7 +24253,7 @@
         <v>86</v>
       </c>
       <c r="J207" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K207" t="s" s="2">
         <v>280</v>
@@ -24471,13 +24471,13 @@
         <v>76</v>
       </c>
       <c r="J209" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M209" s="2"/>
       <c r="N209" s="2"/>
@@ -24528,7 +24528,7 @@
         <v>76</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>77</v>
@@ -24546,7 +24546,7 @@
         <v>76</v>
       </c>
       <c r="AK209" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL209" t="s" s="2">
         <v>76</v>
@@ -24561,7 +24561,7 @@
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" t="s" s="2">
@@ -24580,16 +24580,16 @@
         <v>76</v>
       </c>
       <c r="J210" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N210" s="2"/>
       <c r="O210" t="s" s="2">
@@ -24639,7 +24639,7 @@
         <v>76</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>77</v>
@@ -24651,13 +24651,13 @@
         <v>76</v>
       </c>
       <c r="AI210" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ210" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK210" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL210" t="s" s="2">
         <v>76</v>
@@ -24691,7 +24691,7 @@
         <v>86</v>
       </c>
       <c r="J211" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K211" t="s" s="2">
         <v>206</v>
@@ -24700,7 +24700,7 @@
         <v>207</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N211" t="s" s="2">
         <v>208</v>
@@ -24764,7 +24764,7 @@
         <v>76</v>
       </c>
       <c r="AI211" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ211" t="s" s="2">
         <v>76</v>
@@ -24804,7 +24804,7 @@
         <v>86</v>
       </c>
       <c r="J212" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K212" t="s" s="2">
         <v>290</v>
@@ -25022,7 +25022,7 @@
         <v>86</v>
       </c>
       <c r="J214" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K214" t="s" s="2">
         <v>296</v>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:02:38+00:00</t>
+    <t>2022-09-27T20:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:20:50+00:00</t>
+    <t>2022-09-27T20:30:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:30:57+00:00</t>
+    <t>2022-09-27T22:49:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T22:49:39+00:00</t>
+    <t>2022-09-27T23:00:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T23:00:34+00:00</t>
+    <t>2022-09-27T23:08:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T10:56:05+00:00</t>
+    <t>2022-11-23T04:23:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T04:23:36+00:00</t>
+    <t>2022-11-23T11:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:18:03+00:00</t>
+    <t>2022-11-23T11:20:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:20:15+00:00</t>
+    <t>2022-11-23T15:17:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T15:17:18+00:00</t>
+    <t>2022-11-28T15:39:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T15:39:12+00:00</t>
+    <t>2022-11-28T23:56:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T23:56:31+00:00</t>
+    <t>2022-11-29T11:57:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:57:57+00:00</t>
+    <t>2022-11-30T13:59:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T13:59:42+00:00</t>
+    <t>2022-11-30T15:11:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T15:11:20+00:00</t>
+    <t>2022-11-30T15:45:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-08T23:46:44+00:00</t>
+    <t>2023-01-09T00:16:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCProvideDocumentBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:19:24+00:00</t>
+    <t>2023-01-11T17:29:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
